--- a/src/test/resources/testdata/DemoCartTestData.xlsx
+++ b/src/test/resources/testdata/DemoCartTestData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/naveenautomationlabs/Documents/workspace/Nov2021POMSeries/src/test/resources/testdata/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Java_Selenium\Nov2021POMSeries\src\test\resources\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37767B47-32EF-5744-A3AE-6E787F83A15D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8311DF70-DFA2-4D9D-8285-B4C49EFF3D52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3960" yWindow="2040" windowWidth="28040" windowHeight="17440" xr2:uid="{75FEB103-F146-364E-A4B8-A3AC68AA1DA2}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{75FEB103-F146-364E-A4B8-A3AC68AA1DA2}"/>
   </bookViews>
   <sheets>
     <sheet name="register" sheetId="1" r:id="rId1"/>
@@ -489,17 +489,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2D598B9-8EE7-C54E-9D88-96B3D9DD3744}">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="208" zoomScaleNormal="208" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -516,7 +516,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -533,7 +533,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
@@ -550,7 +550,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>13</v>
       </c>
@@ -583,7 +583,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -597,7 +597,7 @@
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
